--- a/examples/stochastics/data/data_example.xlsx
+++ b/examples/stochastics/data/data_example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C54C4-FAB7-472F-9255-D3EA7A70B140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC4F33E-4ECB-4F01-9FB2-E5C3CA4A2C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="844" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>50.3</v>
@@ -1431,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
